--- a/excel_files/week_3-Excel-simple beam-algorithm.xlsx
+++ b/excel_files/week_3-Excel-simple beam-algorithm.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\AAD-EQE512\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtu-my.sharepoint.com/personal/adindar_gtu_edu_tr/Documents/AAD-Courses/AAD-GTU/EQE512/1-Lecture Notes/EQE512-Matrix-Methods-In-Structural-Analysis/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A0EAEF21EFD672DAB14ABEC121DA2DEFE672765C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E21F6D5-0C93-BA43-B71F-C8D95C4552FD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="13995" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +175,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -460,16 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A13:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -477,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -500,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="1">
         <v>1</v>
       </c>
@@ -541,7 +556,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -554,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f>+$B$19-($B$15*F17)</f>
         <v>5</v>
       </c>
       <c r="I17" s="1">
@@ -562,7 +577,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -587,7 +602,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -613,7 +628,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>

--- a/excel_files/week_3-Excel-simple beam-algorithm.xlsx
+++ b/excel_files/week_3-Excel-simple beam-algorithm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtu-my.sharepoint.com/personal/adindar_gtu_edu_tr/Documents/AAD-Courses/AAD-GTU/EQE512/1-Lecture Notes/EQE512-Matrix-Methods-In-Structural-Analysis/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A0EAEF21EFD672DAB14ABEC121DA2DEFE672765C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E21F6D5-0C93-BA43-B71F-C8D95C4552FD}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_A0EAEF21EFD672DAB14ABEC121DA2DEFE672765C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F7E2F0D-0099-4C43-8A5A-8B9AF74BCE91}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>GIVEN</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>M (x)</t>
+  </si>
+  <si>
+    <t>dx</t>
   </si>
 </sst>
 </file>
@@ -158,6 +161,918 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0000000000000005E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000012E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000002E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4999999995000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9999999980000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999955000008E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.999999992000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2499999987500001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999981999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.74999999755E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999999968000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2499999959500003E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4999999950000004E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2158-0446-A3EF-F7C7EC64F709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1915133184"/>
+        <c:axId val="1941814528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1915133184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941814528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941814528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915133184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -169,7 +1084,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -206,6 +1121,140 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59862BB-39EE-5F48-A116-B563011BE179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380480" y="73185"/>
+          <a:ext cx="5897880" cy="2299174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67D9048-49A8-5D49-86A3-BBA644ACF84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384126F0-A434-2F4F-99E5-7CBF8D6B05FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1686560" y="5052061"/>
+          <a:ext cx="6159500" cy="2459444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -476,14 +1525,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A13:I20"/>
+  <dimension ref="A12:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
@@ -532,28 +1592,29 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>+$B$19-($B$15*F15)</f>
+        <f>$B$19-F15*$B$15</f>
         <v>25</v>
       </c>
       <c r="I15" s="1">
-        <f>+($B$15*F15*F15/2)-$B$19*F15</f>
+        <f>-F15*0.5*(F15*$B$15)+$B$19*F15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="1">
-        <v>1</v>
+        <f>F15+$F$12</f>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H20" si="0">+$B$19-($B$15*F16)</f>
-        <v>15</v>
+        <f>$B$19-F16*$B$15</f>
+        <v>24.999999989999999</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I20" si="1">+($B$15*F16*F16/2)-$B$19*F16</f>
-        <v>-20</v>
+        <f t="shared" ref="I16:I25" si="0">-F16*0.5*(F16*$B$15)+$B$19*F16</f>
+        <v>2.4999999995000003E-8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -563,18 +1624,19 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="F17" s="1">
-        <v>2</v>
+        <f t="shared" ref="F17:F25" si="1">F16+$F$12</f>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <f>+$B$19-($B$15*F17)</f>
-        <v>5</v>
+        <f t="shared" ref="H17:H25" si="2">$B$19-F17*$B$15</f>
+        <v>24.999999979999998</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>-30</v>
+        <f t="shared" ref="I17:I25" si="3">-F17*0.5*(F17*$B$15)+$B$19*F17</f>
+        <v>4.9999999980000001E-8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -588,18 +1650,19 @@
         <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004E-9</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <f t="shared" si="2"/>
+        <v>24.999999970000001</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>-30</v>
+        <f t="shared" si="3"/>
+        <v>7.4999999955000008E-8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -607,25 +1670,26 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <f>+(10*5*5/2)/5</f>
+        <f>B14*B15*0.5</f>
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>24.99999996</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>-20</v>
+        <f t="shared" si="3"/>
+        <v>9.999999992000001E-8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -633,25 +1697,111 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <f>+(10*5)-B19</f>
+        <f>(B15*B14)*B14*0.5/B14</f>
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>24.999999949999999</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2499999987500001E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>6E-9</v>
+      </c>
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>24.999999939999999</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4999999981999999E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>24.999999930000001</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.74999999755E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>24.99999992</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9999999968000002E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000012E-9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>24.99999991</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2499999959500003E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>24.999999899999999</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4999999950000004E-7</v>
       </c>
     </row>
   </sheetData>
